--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail13 Features.xlsx
@@ -4063,7 +4063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,29 +4074,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="21" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4117,115 +4115,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4242,72 +4230,66 @@
         <v>5.249362288574469e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.009097800305080533</v>
+        <v>1.776803035337655e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.339983708224231</v>
+        <v>1.163238863907498e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.776803035337655e-07</v>
+        <v>0.004786553509500922</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.163238863907498e-06</v>
+        <v>0.203107925692375</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.004786553509500922</v>
+        <v>0.04117564176427925</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.203107925692375</v>
+        <v>1.92850185920977</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04117564176427925</v>
+        <v>3.388911288676887</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.956300945388499</v>
+        <v>6.881926273834051</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.388911288676887</v>
+        <v>1.661532633824403e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.881926273834051</v>
+        <v>39321376452.8415</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.661532633824403e-18</v>
+        <v>3.068289184154305e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>39321376452.8415</v>
+        <v>2569.012986033072</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.068289184154305e-09</v>
+        <v>3.944007339604395e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2569.012986033072</v>
+        <v>12.04238950803953</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.944007339604395e-05</v>
+        <v>1.198496928566047</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.04238950803953</v>
+        <v>0.005719565725129696</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.198496928566047</v>
+        <v>7.302730812230209</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005719565725129696</v>
+        <v>0.9624117321379418</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.302730812230209</v>
+        <v>0.6857215734091063</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9624117321379418</v>
+        <v>226</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6857215734091063</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>226</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>14.00861568416236</v>
       </c>
     </row>
@@ -4322,72 +4304,66 @@
         <v>5.28173801266887e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.01880289721258828</v>
+        <v>1.638248477768125e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.338321881817281</v>
+        <v>1.16298523114004e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.638248477768125e-07</v>
+        <v>-0.01320656771990212</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.16298523114004e-06</v>
+        <v>0.1473590589191297</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01320656771990212</v>
+        <v>0.0218377624510671</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1473590589191297</v>
+        <v>1.92569975183434</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0218377624510671</v>
+        <v>3.05335866716057</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.9511886998424</v>
+        <v>5.806471773217394</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.05335866716057</v>
+        <v>2.815558861103087e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.806471773217394</v>
+        <v>22994396017.875</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.815558861103087e-18</v>
+        <v>5.241326164193717e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>22994396017.875</v>
+        <v>1488.70492223472</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.241326164193717e-09</v>
+        <v>6.423281500021099e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1488.70492223472</v>
+        <v>12.76601384139549</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.423281500021099e-05</v>
+        <v>1.1358082802873</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.76601384139549</v>
+        <v>0.01046809312038591</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.1358082802873</v>
+        <v>6.588554924159365</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01046809312038591</v>
+        <v>0.9621360984888294</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.588554924159365</v>
+        <v>0.7284771444328639</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9621360984888294</v>
+        <v>186</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7284771444328639</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>186</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>11.62415279864089</v>
       </c>
     </row>
@@ -4402,72 +4378,66 @@
         <v>5.383940787474934e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.02247558434229556</v>
+        <v>1.642588666495831e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.363101249225007</v>
+        <v>1.161930034295583e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.642588666495831e-07</v>
+        <v>-0.02541458930046627</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.161930034295583e-06</v>
+        <v>0.1059017111246522</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02541458930046627</v>
+        <v>0.01183631968478816</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1059017111246522</v>
+        <v>1.925054264618144</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01183631968478816</v>
+        <v>2.897048882541998</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.953348854385367</v>
+        <v>5.797163161829188</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.897048882541998</v>
+        <v>3.22837371876984e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.797163161829188</v>
+        <v>20047095426.44286</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.22837371876984e-18</v>
+        <v>6.019682025294267e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>20047095426.44286</v>
+        <v>1297.438313453762</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.019682025294267e-09</v>
+        <v>7.602386119106975e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1297.438313453762</v>
+        <v>14.29760654768038</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7.602386119106975e-05</v>
+        <v>0.9698444659888712</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>14.29760654768038</v>
+        <v>0.01554091576914746</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.9698444659888712</v>
+        <v>6.134621032914598</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01554091576914746</v>
+        <v>0.9628254240187907</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.134621032914598</v>
+        <v>0.8012567432575939</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9628254240187907</v>
+        <v>148</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8012567432575939</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>10.66055325907957</v>
       </c>
     </row>
@@ -4482,72 +4452,66 @@
         <v>5.48651504762794e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.006663186795186065</v>
+        <v>1.644176456124561e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.394545961017673</v>
+        <v>1.160310219074346e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.644176456124561e-07</v>
+        <v>-0.0335226375338243</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.160310219074346e-06</v>
+        <v>0.07668232900392628</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0335226375338243</v>
+        <v>0.006992362522606806</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07668232900392628</v>
+        <v>1.927150706013085</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.006992362522606806</v>
+        <v>2.874727316691176</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.948586454068492</v>
+        <v>5.895271759807382</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.874727316691176</v>
+        <v>3.121815200199451e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.895271759807382</v>
+        <v>20839439053.00097</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.121815200199451e-18</v>
+        <v>5.79220160481585e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>20839439053.00097</v>
+        <v>1355.748835708917</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.79220160481585e-09</v>
+        <v>9.559234477258795e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1355.748835708917</v>
+        <v>12.98095701275991</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.559234477258795e-05</v>
+        <v>1.042028515726215</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.98095701275991</v>
+        <v>0.01610781147288638</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.042028515726215</v>
+        <v>5.515317490221527</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01610781147288638</v>
+        <v>0.9632136080776056</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.515317490221527</v>
+        <v>0.9105265909304852</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9632136080776056</v>
+        <v>129</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9105265909304852</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>8.226148243780631</v>
       </c>
     </row>
@@ -4924,7 +4888,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.487324826464442</v>
+        <v>1.505890762276973</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.677472178600508</v>
@@ -5013,7 +4977,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523655645413746</v>
+        <v>1.539560587591897</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.756055006842414</v>
@@ -5102,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.522513060462421</v>
+        <v>1.537526492017153</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.710908359517903</v>
@@ -5191,7 +5155,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.525947946474967</v>
+        <v>1.543527156597827</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.513502980034439</v>
@@ -5280,7 +5244,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.558289052770441</v>
+        <v>1.575046876295175</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.460179218682367</v>
@@ -5369,7 +5333,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.595215278613362</v>
+        <v>1.608650393697817</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.240598212003893</v>
@@ -5458,7 +5422,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.654571421159713</v>
+        <v>1.664247668696375</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.516909948832045</v>
@@ -5547,7 +5511,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.63976997481798</v>
+        <v>1.654256162350799</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.730032184151556</v>
@@ -5636,7 +5600,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.676271874749114</v>
+        <v>1.692195050782684</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.513387320314543</v>
@@ -5725,7 +5689,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.63592091539869</v>
+        <v>1.657216822836547</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.678824338615651</v>
@@ -5814,7 +5778,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.612337450712966</v>
+        <v>1.63569005682678</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.855401862470676</v>
@@ -5903,7 +5867,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.503720551792055</v>
+        <v>1.525425077336936</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.844895234711117</v>
@@ -5992,7 +5956,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.454004445963933</v>
+        <v>1.478266714313493</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.891627995209225</v>
@@ -6081,7 +6045,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.443231593840559</v>
+        <v>1.471412441110533</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.870077209491966</v>
@@ -6170,7 +6134,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.427803620345496</v>
+        <v>1.452199919670781</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.868383027813795</v>
@@ -6259,7 +6223,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.408976963607324</v>
+        <v>1.431849670869007</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.887546765052283</v>
@@ -6348,7 +6312,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.415221807222667</v>
+        <v>1.442830146181769</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.87614346980317</v>
@@ -6437,7 +6401,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.414399051541515</v>
+        <v>1.444989439773831</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.874598925537155</v>
@@ -6526,7 +6490,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.415037912848726</v>
+        <v>1.446183711440735</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.890058476346547</v>
@@ -6615,7 +6579,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.423047271501831</v>
+        <v>1.453774456587672</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.886665749053467</v>
@@ -6704,7 +6668,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.419637474336072</v>
+        <v>1.447151222325626</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.899412001643439</v>
@@ -6793,7 +6757,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.425306530184522</v>
+        <v>1.458237001488352</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.873449388051183</v>
@@ -6882,7 +6846,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.428492387051557</v>
+        <v>1.461666530892705</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.878926779539366</v>
@@ -6971,7 +6935,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.41650134948238</v>
+        <v>1.4431259264765</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.911312536320975</v>
@@ -7060,7 +7024,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.429089602585687</v>
+        <v>1.462042776709788</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.922915509809217</v>
@@ -7149,7 +7113,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.431278102028253</v>
+        <v>1.468006668005424</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.904406615036795</v>
@@ -7238,7 +7202,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.523401620940796</v>
+        <v>1.56268567385309</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.969567173798568</v>
@@ -7327,7 +7291,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56954068440567</v>
+        <v>1.611356786729319</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.621900725075307</v>
@@ -7416,7 +7380,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.603443983128524</v>
+        <v>1.649056236363138</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.83687328926046</v>
@@ -7505,7 +7469,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.635696865042029</v>
+        <v>1.683227069397585</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.568899143816677</v>
@@ -7594,7 +7558,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.655107307462175</v>
+        <v>1.704622032145832</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.565577024154908</v>
@@ -7683,7 +7647,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.633156819656198</v>
+        <v>1.680752512212534</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.802511342463537</v>
@@ -7772,7 +7736,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.631465178692791</v>
+        <v>1.67568679370158</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.670922863480953</v>
@@ -7861,7 +7825,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.629606367675892</v>
+        <v>1.667126702868928</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.631320680750755</v>
@@ -7950,7 +7914,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.625855795967905</v>
+        <v>1.664691593503553</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.75244542355746</v>
@@ -8039,7 +8003,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.628255341482193</v>
+        <v>1.667048650642194</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.523564298835309</v>
@@ -8128,7 +8092,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.585727296481309</v>
+        <v>1.622349647376182</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.414735806715437</v>
@@ -8217,7 +8181,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.587550132816232</v>
+        <v>1.625183659297173</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.4206756941957</v>
@@ -8306,7 +8270,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.630402082178514</v>
+        <v>1.665898973033886</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.18218001365755</v>
@@ -8395,7 +8359,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.650975567079468</v>
+        <v>1.680966670252004</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.295793024197673</v>
@@ -8484,7 +8448,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.67198599251945</v>
+        <v>1.70048824083265</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.479694835850821</v>
@@ -8573,7 +8537,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.685380243553458</v>
+        <v>1.713560774863986</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.494708948086774</v>
@@ -8662,7 +8626,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.668081012463837</v>
+        <v>1.696909795851518</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.507132181233766</v>
@@ -8751,7 +8715,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.640460851186625</v>
+        <v>1.668773494077472</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.454179951830811</v>
@@ -8840,7 +8804,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.620541411663617</v>
+        <v>1.650132451486373</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.344629655972613</v>
@@ -8929,7 +8893,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618199802072832</v>
+        <v>1.642174897815244</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.465672672618478</v>
@@ -9018,7 +8982,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.632986526475644</v>
+        <v>1.655839399038425</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.337416627065897</v>
@@ -9107,7 +9071,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.647089085969058</v>
+        <v>1.671981396240142</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.475962655348277</v>
@@ -9196,7 +9160,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.634180726744967</v>
+        <v>1.662246042771815</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.419622215992774</v>
@@ -9482,7 +9446,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.513262548430517</v>
+        <v>1.510806257271291</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.412479500691579</v>
@@ -9571,7 +9535,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.524845935365509</v>
+        <v>1.519546423962927</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.205006663076688</v>
@@ -9660,7 +9624,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.51864685407558</v>
+        <v>1.504879314402095</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.376465555901087</v>
@@ -9749,7 +9713,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.470771881758408</v>
+        <v>1.448942379020727</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.240175176174815</v>
@@ -9838,7 +9802,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.471790324573357</v>
+        <v>1.451359951926333</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.164613290134451</v>
@@ -9927,7 +9891,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.491261955617115</v>
+        <v>1.464949729545405</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.141844475091549</v>
@@ -10016,7 +9980,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.546163297568684</v>
+        <v>1.5270735168289</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.694889048781184</v>
@@ -10105,7 +10069,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.540853225440199</v>
+        <v>1.51949011387771</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.490985461478928</v>
@@ -10194,7 +10158,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.567328479224194</v>
+        <v>1.543330129696387</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.368324052453605</v>
@@ -10283,7 +10247,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.550786144504822</v>
+        <v>1.53250361546596</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.65961210583273</v>
@@ -10372,7 +10336,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.540191879042198</v>
+        <v>1.516383870760589</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.79439362150398</v>
@@ -10461,7 +10425,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.527907278312058</v>
+        <v>1.51335013078129</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.597939062899711</v>
@@ -10550,7 +10514,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.522088799358168</v>
+        <v>1.506367017728845</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.693012275770887</v>
@@ -10639,7 +10603,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.527371416020779</v>
+        <v>1.513490973028417</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.575414694221982</v>
@@ -10728,7 +10692,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.51113192324946</v>
+        <v>1.494584178623364</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.533105724191789</v>
@@ -10817,7 +10781,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.486231565859676</v>
+        <v>1.465641157088086</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.661779425458504</v>
@@ -10906,7 +10870,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.49059396410738</v>
+        <v>1.472476180062042</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.660889142711507</v>
@@ -10995,7 +10959,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.493666000846965</v>
+        <v>1.480644133427831</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.623210142921117</v>
@@ -11084,7 +11048,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.49745498308567</v>
+        <v>1.484005019682874</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.751170100604361</v>
@@ -11173,7 +11137,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.503593136526793</v>
+        <v>1.488850581048652</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.75725684276662</v>
@@ -11262,7 +11226,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.523275756959028</v>
+        <v>1.507388413129774</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.652883796043742</v>
@@ -11351,7 +11315,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.536576568954424</v>
+        <v>1.518080106401751</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.557347816946889</v>
@@ -11440,7 +11404,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.530343560284386</v>
+        <v>1.512500403479586</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.670435758636951</v>
@@ -11529,7 +11493,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.535446460533079</v>
+        <v>1.517134870513709</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.752677671673781</v>
@@ -11618,7 +11582,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.545099286328664</v>
+        <v>1.523771278262844</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.715871721129715</v>
@@ -11707,7 +11671,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.553417755280774</v>
+        <v>1.538581098481365</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.766260815727284</v>
@@ -11796,7 +11760,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.565961803800985</v>
+        <v>1.546659568767202</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.40057437935225</v>
@@ -11885,7 +11849,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.574756710409537</v>
+        <v>1.556109349775681</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.69029152767315</v>
@@ -11974,7 +11938,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.599429966184763</v>
+        <v>1.58346527889335</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.629237962064383</v>
@@ -12063,7 +12027,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.612446950295572</v>
+        <v>1.596326559464328</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.515057108798212</v>
@@ -12152,7 +12116,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.665171948554921</v>
+        <v>1.649700450079509</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.945409622831992</v>
@@ -12241,7 +12205,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.651105012038113</v>
+        <v>1.640291685222977</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.05631211451577</v>
@@ -12330,7 +12294,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.653426014909391</v>
+        <v>1.638547264432496</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.097896568857505</v>
@@ -12419,7 +12383,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.651612694042047</v>
+        <v>1.635785253455184</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.036906992385069</v>
@@ -12508,7 +12472,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.659983003202955</v>
+        <v>1.646254453582097</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.893203160993103</v>
@@ -12597,7 +12561,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.640328982080641</v>
+        <v>1.632528679457282</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.024329570346089</v>
@@ -12686,7 +12650,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.612473727922305</v>
+        <v>1.608300301549736</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.890355107798079</v>
@@ -12775,7 +12739,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.601581949051697</v>
+        <v>1.602002084836374</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.815387111922609</v>
@@ -12864,7 +12828,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.605654564562538</v>
+        <v>1.611864000823679</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.452019836336119</v>
@@ -12953,7 +12917,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.594381521979289</v>
+        <v>1.598242978472963</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.680683055083187</v>
@@ -13042,7 +13006,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.587617159875101</v>
+        <v>1.595071339121235</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.741291620717444</v>
@@ -13131,7 +13095,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.591179618631429</v>
+        <v>1.600331479026401</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.791753648840935</v>
@@ -13220,7 +13184,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594202883746217</v>
+        <v>1.601044532987369</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.782000075334302</v>
@@ -13309,7 +13273,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.566796302877688</v>
+        <v>1.575807019692145</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.619732373081522</v>
@@ -13398,7 +13362,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.556432333231612</v>
+        <v>1.565074503570809</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.668244956671979</v>
@@ -13487,7 +13451,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.562203830717822</v>
+        <v>1.567930942396586</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.738149807280329</v>
@@ -13576,7 +13540,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.575627206448172</v>
+        <v>1.578834390326401</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.52394968781724</v>
@@ -13665,7 +13629,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.590176720691101</v>
+        <v>1.592018308581744</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.673744914663185</v>
@@ -13754,7 +13718,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.587454197447954</v>
+        <v>1.59310792740997</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.703111752656103</v>
@@ -14040,7 +14004,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.769511036382693</v>
+        <v>1.758741692103565</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.845160391358711</v>
@@ -14129,7 +14093,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.77646506468605</v>
+        <v>1.765086112678234</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.71357938443971</v>
@@ -14218,7 +14182,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.786142809087317</v>
+        <v>1.774540557404107</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.327507213524674</v>
@@ -14307,7 +14271,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.784106090444303</v>
+        <v>1.776715628353836</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.618213770010978</v>
@@ -14396,7 +14360,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.793743788077377</v>
+        <v>1.786142413598449</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.483195739492043</v>
@@ -14485,7 +14449,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.813630449789432</v>
+        <v>1.801956034847912</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.052919306257355</v>
@@ -14574,7 +14538,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.855362978021744</v>
+        <v>1.832956511359227</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.405353431721253</v>
@@ -14663,7 +14627,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.861282527063976</v>
+        <v>1.846654613585439</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.731437053351638</v>
@@ -14752,7 +14716,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.869827296191777</v>
+        <v>1.858552600572362</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.856642527272218</v>
@@ -14841,7 +14805,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.867609930451648</v>
+        <v>1.858296280324853</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.126463664592174</v>
@@ -14930,7 +14894,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.856458145108461</v>
+        <v>1.847900712365091</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.7226884707543</v>
@@ -15019,7 +14983,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.847441409481549</v>
+        <v>1.83714364906466</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.307913173109258</v>
@@ -15108,7 +15072,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.840851040182539</v>
+        <v>1.83193100630656</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.179146112918424</v>
@@ -15197,7 +15161,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.825537585246758</v>
+        <v>1.818469646311317</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.428233060842554</v>
@@ -15286,7 +15250,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.813791747702819</v>
+        <v>1.802965129961406</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.134268636133394</v>
@@ -15375,7 +15339,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.801742906668739</v>
+        <v>1.793963999853483</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.370724275390483</v>
@@ -15464,7 +15428,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.809444768659052</v>
+        <v>1.801714968327665</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.4224819569089</v>
@@ -15553,7 +15517,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.814321480190997</v>
+        <v>1.806440050793633</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.4945800173026</v>
@@ -15642,7 +15606,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.8199779553963</v>
+        <v>1.810564148689177</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.293177977977408</v>
@@ -15731,7 +15695,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.822370601115692</v>
+        <v>1.815823136650043</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.444912832880308</v>
@@ -15820,7 +15784,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.825589363967037</v>
+        <v>1.819873115040549</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.311836470784677</v>
@@ -15909,7 +15873,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.830489892914054</v>
+        <v>1.830632771920643</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.173850134017937</v>
@@ -15998,7 +15962,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.830106069170361</v>
+        <v>1.828423494664032</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.539206753933782</v>
@@ -16087,7 +16051,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.82765927271359</v>
+        <v>1.822366815441369</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.544189204271557</v>
@@ -16176,7 +16140,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.827968621823675</v>
+        <v>1.822056088288528</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.559241261360047</v>
@@ -16265,7 +16229,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.835136070691064</v>
+        <v>1.83068586982363</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.293002042873467</v>
@@ -16354,7 +16318,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.848232380521186</v>
+        <v>1.846155239405063</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.614216964016281</v>
@@ -16443,7 +16407,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.856782512490972</v>
+        <v>1.857353181505017</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.307191857965173</v>
@@ -16532,7 +16496,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.872843222324528</v>
+        <v>1.878113107253795</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.443278517333112</v>
@@ -16621,7 +16585,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.879246877366682</v>
+        <v>1.886125214034457</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.663134496786713</v>
@@ -16710,7 +16674,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.893917769354291</v>
+        <v>1.897792109766436</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.949052833916067</v>
@@ -16799,7 +16763,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.896183661416075</v>
+        <v>1.898711895600222</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.981359502959017</v>
@@ -16888,7 +16852,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.896536097410387</v>
+        <v>1.889359968663456</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.703536126047789</v>
@@ -16977,7 +16941,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.897673852088076</v>
+        <v>1.885860985371501</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.515142730851279</v>
@@ -17066,7 +17030,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.898791692414424</v>
+        <v>1.882989166368792</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.812227106009008</v>
@@ -17155,7 +17119,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.900037390339994</v>
+        <v>1.882754525518383</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.831930120325339</v>
@@ -17244,7 +17208,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.881720506822409</v>
+        <v>1.859411710143298</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.372674265089234</v>
@@ -17333,7 +17297,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.870733982751721</v>
+        <v>1.853619798008566</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.380290884472217</v>
@@ -17422,7 +17386,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.878982848913564</v>
+        <v>1.86683018525596</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.15982073413379</v>
@@ -17511,7 +17475,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.880120653770652</v>
+        <v>1.867795687641232</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.17149567430282</v>
@@ -17600,7 +17564,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.881222106445473</v>
+        <v>1.870795387688224</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.117211550043268</v>
@@ -17689,7 +17653,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.882506405004764</v>
+        <v>1.869755153248942</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.360845893417273</v>
@@ -17778,7 +17742,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.875709675706965</v>
+        <v>1.860463656790427</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.386777188730343</v>
@@ -17867,7 +17831,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.86996909119971</v>
+        <v>1.846159555731742</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.263486096072827</v>
@@ -17956,7 +17920,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.867821803087633</v>
+        <v>1.839833980258918</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.89577577882751</v>
@@ -18045,7 +18009,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.859226561730018</v>
+        <v>1.823251848035236</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.981759457520377</v>
@@ -18134,7 +18098,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.858750451699248</v>
+        <v>1.823016074367354</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.159043780116176</v>
@@ -18223,7 +18187,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.857680888505979</v>
+        <v>1.826750050618918</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.250579184276628</v>
@@ -18312,7 +18276,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.854250655341847</v>
+        <v>1.823778375301249</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.054928486814215</v>
@@ -18598,7 +18562,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.570976332395532</v>
+        <v>1.575320124078299</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.908283159585356</v>
@@ -18687,7 +18651,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.590047949898258</v>
+        <v>1.594248938563278</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.757897220195531</v>
@@ -18776,7 +18740,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.589361893441516</v>
+        <v>1.591541812691835</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.637742513583027</v>
@@ -18865,7 +18829,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.586948351345647</v>
+        <v>1.58847030811378</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.629207074571594</v>
@@ -18954,7 +18918,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.601053615423379</v>
+        <v>1.602495261070501</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.73834223741994</v>
@@ -19043,7 +19007,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.612362823013138</v>
+        <v>1.608674407651342</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.664951831431138</v>
@@ -19132,7 +19096,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.63294382064279</v>
+        <v>1.626338084847527</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.982014957594102</v>
@@ -19221,7 +19185,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.61573169705754</v>
+        <v>1.606355703845924</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.627422884935732</v>
@@ -19310,7 +19274,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.642748117596324</v>
+        <v>1.631586569352263</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.82725714108587</v>
@@ -19399,7 +19363,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.614296137611704</v>
+        <v>1.604693931206337</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.666512784457116</v>
@@ -19488,7 +19452,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.603372587246804</v>
+        <v>1.587308086140942</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.701310272446642</v>
@@ -19577,7 +19541,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.602891276208185</v>
+        <v>1.588108266367148</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.752125003702299</v>
@@ -19666,7 +19630,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.577511154513749</v>
+        <v>1.567929120763128</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.557874521277055</v>
@@ -19755,7 +19719,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.556951875650744</v>
+        <v>1.552815575170696</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.860099727447246</v>
@@ -19844,7 +19808,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.532292942605498</v>
+        <v>1.530207174542116</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.830403164397342</v>
@@ -19933,7 +19897,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.517675531675484</v>
+        <v>1.516306763828535</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.667723632582146</v>
@@ -20022,7 +19986,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.517054834457115</v>
+        <v>1.517468189633566</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.79739693845737</v>
@@ -20111,7 +20075,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.522085277589549</v>
+        <v>1.525490393017803</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.845541191883989</v>
@@ -20200,7 +20164,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.522478052412116</v>
+        <v>1.521712807900431</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.723238585362649</v>
@@ -20289,7 +20253,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.528110107057907</v>
+        <v>1.532021583333529</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.639516723666548</v>
@@ -20378,7 +20342,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.541027150221901</v>
+        <v>1.545765924742614</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.749175928482777</v>
@@ -20467,7 +20431,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.545373151846981</v>
+        <v>1.55676486914029</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.779740629401224</v>
@@ -20556,7 +20520,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.551162132988586</v>
+        <v>1.560101085502479</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.93842424731265</v>
@@ -20645,7 +20609,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.540827841287585</v>
+        <v>1.546963005877302</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.811096901823464</v>
@@ -20734,7 +20698,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.561496564006014</v>
+        <v>1.573618195381595</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.838287210866294</v>
@@ -20823,7 +20787,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.566596112094003</v>
+        <v>1.586391869088859</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.917811452848559</v>
@@ -20912,7 +20876,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.549503314892512</v>
+        <v>1.570671313404416</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.149132183963569</v>
@@ -21001,7 +20965,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.568672533301175</v>
+        <v>1.591741101061605</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.298912493867654</v>
@@ -21090,7 +21054,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.593814714213077</v>
+        <v>1.615560205075361</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.474513852443565</v>
@@ -21179,7 +21143,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.61868501620781</v>
+        <v>1.642039534321377</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.429018184886925</v>
@@ -21268,7 +21232,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.645078901419718</v>
+        <v>1.667607897765085</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.399654812615102</v>
@@ -21357,7 +21321,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.646466782725732</v>
+        <v>1.669631504663568</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.450900428730332</v>
@@ -21446,7 +21410,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.648028631046199</v>
+        <v>1.672633318146431</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.421690192649359</v>
@@ -21535,7 +21499,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.649890495093467</v>
+        <v>1.668337554028383</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.387633213537875</v>
@@ -21624,7 +21588,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.648326714766045</v>
+        <v>1.666682994505858</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.485186335277542</v>
@@ -21713,7 +21677,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.650160711941076</v>
+        <v>1.668968409252399</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.466981296122558</v>
@@ -21802,7 +21766,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.617850756632615</v>
+        <v>1.631670692694589</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.139217837761182</v>
@@ -21891,7 +21855,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.617623041881101</v>
+        <v>1.630618053735477</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.172701804650086</v>
@@ -21980,7 +21944,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.645586760508289</v>
+        <v>1.655375502625415</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.053318567855338</v>
@@ -22069,7 +22033,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.644217207935675</v>
+        <v>1.65120637562052</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.138904416221312</v>
@@ -22158,7 +22122,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.641496720207698</v>
+        <v>1.646604724333101</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.15632999779486</v>
@@ -22247,7 +22211,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.692541758340632</v>
+        <v>1.689708727674126</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.142167497771373</v>
@@ -22336,7 +22300,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.669567520524658</v>
+        <v>1.671443659945441</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.141245706206027</v>
@@ -22425,7 +22389,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.645238470067929</v>
+        <v>1.644931155867985</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.185587439619189</v>
@@ -22514,7 +22478,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.637685889243033</v>
+        <v>1.637852226545236</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.143670366824004</v>
@@ -22603,7 +22567,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.630041819837802</v>
+        <v>1.626614265075339</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.109488263122348</v>
@@ -22692,7 +22656,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.633704735322027</v>
+        <v>1.62765785853684</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.218058394835702</v>
@@ -22781,7 +22745,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.646124469444187</v>
+        <v>1.638840219785073</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.135379454045464</v>
@@ -22870,7 +22834,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.637687390355528</v>
+        <v>1.634615607618378</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.135227042620728</v>
@@ -23156,7 +23120,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.196864067400765</v>
+        <v>1.188053686111331</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.067761630545114</v>
@@ -23245,7 +23209,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.211069744848587</v>
+        <v>1.202474831972361</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.988222024756209</v>
@@ -23334,7 +23298,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.215410566049431</v>
+        <v>1.204352560718352</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.813512756656463</v>
@@ -23423,7 +23387,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.198009584041634</v>
+        <v>1.176735609394557</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.811935804493516</v>
@@ -23512,7 +23476,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.214452492820927</v>
+        <v>1.197584066243554</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.897804021850303</v>
@@ -23601,7 +23565,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.229174620669768</v>
+        <v>1.211639263195174</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.880053318741855</v>
@@ -23690,7 +23654,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.250571316855174</v>
+        <v>1.237735850523441</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.891327953029515</v>
@@ -23779,7 +23743,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.232349878233523</v>
+        <v>1.223007375730614</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.123995884609049</v>
@@ -23868,7 +23832,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.253152361619593</v>
+        <v>1.249541059386335</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.915312316615301</v>
@@ -23957,7 +23921,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.234187964312489</v>
+        <v>1.222772063152235</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.147137576638407</v>
@@ -24046,7 +24010,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.221914561762796</v>
+        <v>1.212695064159733</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.980268370722274</v>
@@ -24135,7 +24099,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.210022830866052</v>
+        <v>1.202366934482744</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.13498941714178</v>
@@ -24224,7 +24188,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.199001728674392</v>
+        <v>1.184254141455072</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.06072177074417</v>
@@ -24313,7 +24277,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.201579471789824</v>
+        <v>1.18471425910928</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.116628434996687</v>
@@ -24402,7 +24366,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.190250391985602</v>
+        <v>1.175183678204609</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.178513433094224</v>
@@ -24491,7 +24455,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.182363638908519</v>
+        <v>1.163594042067295</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.19226923889771</v>
@@ -24580,7 +24544,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.175632604530617</v>
+        <v>1.164290297029636</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.223802446314128</v>
@@ -24669,7 +24633,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.17707560883677</v>
+        <v>1.162432484561131</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.227460019600215</v>
@@ -24758,7 +24722,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.183026014129551</v>
+        <v>1.170618807599045</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.14743346288235</v>
@@ -24847,7 +24811,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.188672066655757</v>
+        <v>1.17575950793063</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.149995411261366</v>
@@ -24936,7 +24900,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.198785517410725</v>
+        <v>1.183597355496939</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.161566352235771</v>
@@ -25025,7 +24989,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.200940687258887</v>
+        <v>1.184380459051322</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.982652332663463</v>
@@ -25114,7 +25078,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.206911339396849</v>
+        <v>1.19119400997031</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.166820211038497</v>
@@ -25203,7 +25167,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.202808919977348</v>
+        <v>1.180457738574443</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.128015230553219</v>
@@ -25292,7 +25256,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.197195995222599</v>
+        <v>1.181054882195414</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.094724690694862</v>
@@ -25381,7 +25345,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.207009787807302</v>
+        <v>1.19332620418873</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.007370792187491</v>
@@ -25470,7 +25434,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.210482230958856</v>
+        <v>1.196246396318075</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.112740296836885</v>
@@ -25559,7 +25523,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.231887196831437</v>
+        <v>1.219105920201041</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.12875611075784</v>
@@ -25648,7 +25612,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.246237270851168</v>
+        <v>1.233110411997474</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.851183558322756</v>
@@ -25737,7 +25701,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.258746766494864</v>
+        <v>1.248980902747027</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.038856816003609</v>
@@ -25826,7 +25790,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.294136285395927</v>
+        <v>1.290932347760027</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.893412987931856</v>
@@ -25915,7 +25879,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.274666576381713</v>
+        <v>1.264569815856934</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.047727026631944</v>
@@ -26004,7 +25968,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.283419422998452</v>
+        <v>1.280971392923042</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.125048946403974</v>
@@ -26093,7 +26057,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.283300604539265</v>
+        <v>1.280768897611775</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.073364196399981</v>
@@ -26182,7 +26146,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.285408109741367</v>
+        <v>1.283091866055412</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.064646356874597</v>
@@ -26271,7 +26235,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.280829491334805</v>
+        <v>1.280132288067353</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.018977484549003</v>
@@ -26360,7 +26324,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.279462447489966</v>
+        <v>1.27718106110154</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.056044344786661</v>
@@ -26449,7 +26413,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.279594747679911</v>
+        <v>1.278218002038832</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.086440675403298</v>
@@ -26538,7 +26502,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.317729667738539</v>
+        <v>1.314759122278053</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.033301798125695</v>
@@ -26627,7 +26591,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.335654733420849</v>
+        <v>1.331216666517737</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.231915438773282</v>
@@ -26716,7 +26680,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.344582614384533</v>
+        <v>1.339226879253686</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.035376330103668</v>
@@ -26805,7 +26769,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.350539088141893</v>
+        <v>1.348590863979292</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.013200258980306</v>
@@ -26894,7 +26858,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.336664022993213</v>
+        <v>1.331870650507119</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.117571954987316</v>
@@ -26983,7 +26947,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.310846584159473</v>
+        <v>1.304798401715012</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.084735607518388</v>
@@ -27072,7 +27036,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.287871001181457</v>
+        <v>1.280077341885271</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.083010851763876</v>
@@ -27161,7 +27125,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.281208249225916</v>
+        <v>1.275595925206865</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.137310490261954</v>
@@ -27250,7 +27214,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.298621820239347</v>
+        <v>1.297324907944815</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.91230305442414</v>
@@ -27339,7 +27303,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.323677425306759</v>
+        <v>1.321595776083162</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.048548430538108</v>
@@ -27428,7 +27392,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.302623886191572</v>
+        <v>1.300190630235794</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.117001417854317</v>
@@ -27714,7 +27678,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.519225284951309</v>
+        <v>1.537692061958454</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.74549333416078</v>
@@ -27803,7 +27767,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.553852084557389</v>
+        <v>1.569964324803616</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.673315383501174</v>
@@ -27892,7 +27856,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.570823008853902</v>
+        <v>1.585256724432959</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.661145968372555</v>
@@ -27981,7 +27945,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.582648890285337</v>
+        <v>1.600741052957314</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.583920187874462</v>
@@ -28070,7 +28034,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.619447022372445</v>
+        <v>1.634967772617622</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.651746799706437</v>
@@ -28159,7 +28123,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.644249914381632</v>
+        <v>1.654365688892879</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.477221698870349</v>
@@ -28248,7 +28212,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.696206513361717</v>
+        <v>1.699398694675128</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.630811477810312</v>
@@ -28337,7 +28301,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.670433513115666</v>
+        <v>1.675162397996707</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.404405942878669</v>
@@ -28426,7 +28390,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.71384956103277</v>
+        <v>1.711274454637155</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.578834364897338</v>
@@ -28515,7 +28479,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.668850150339677</v>
+        <v>1.664251862976348</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.635034551432661</v>
@@ -28604,7 +28568,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.64335634530669</v>
+        <v>1.641523027403787</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.026472277656546</v>
@@ -28693,7 +28657,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.609528677089391</v>
+        <v>1.616848999723493</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.721800668903041</v>
@@ -28782,7 +28746,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.591385399601455</v>
+        <v>1.603687207230995</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.716502725217526</v>
@@ -28871,7 +28835,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.592458980692161</v>
+        <v>1.60604189745275</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.638413342316305</v>
@@ -28960,7 +28924,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.55201925425004</v>
+        <v>1.567734022021967</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.735823841914407</v>
@@ -29049,7 +29013,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.525299174938525</v>
+        <v>1.543066087677594</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.68648446286602</v>
@@ -29138,7 +29102,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.528072391804785</v>
+        <v>1.554193173668537</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.736156938522023</v>
@@ -29227,7 +29191,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5150619075574</v>
+        <v>1.542866168125847</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.627649912560076</v>
@@ -29316,7 +29280,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.51567450799345</v>
+        <v>1.541082796434817</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.609881810805814</v>
@@ -29405,7 +29369,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.529810003470058</v>
+        <v>1.554220848062783</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.63560085791775</v>
@@ -29494,7 +29458,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.533367635576455</v>
+        <v>1.5575940535379</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.540111751961251</v>
@@ -29583,7 +29547,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.541979749632736</v>
+        <v>1.570388600551997</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.668768901272661</v>
@@ -29672,7 +29636,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.548611801305473</v>
+        <v>1.578806864558248</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.662651431081315</v>
@@ -29761,7 +29725,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.541568506135791</v>
+        <v>1.567381646145069</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.665553550718872</v>
@@ -29850,7 +29814,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.544110530389473</v>
+        <v>1.576723200944679</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.592614265097317</v>
@@ -29939,7 +29903,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.555575754133301</v>
+        <v>1.590778573012116</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.498895306770608</v>
@@ -30028,7 +29992,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.571493377560477</v>
+        <v>1.603703126606716</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.922874153223039</v>
@@ -30117,7 +30081,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585644520084464</v>
+        <v>1.618724759960985</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.595854639547435</v>
@@ -30206,7 +30170,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.6156526694025</v>
+        <v>1.648723279993057</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.615036236752423</v>
@@ -30295,7 +30259,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.654607118966664</v>
+        <v>1.689576415278016</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.684184050764045</v>
@@ -30384,7 +30348,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.68996909187841</v>
+        <v>1.723364163605322</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.537452511706836</v>
@@ -30473,7 +30437,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.667506180275097</v>
+        <v>1.700505616273977</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.714312060306555</v>
@@ -30562,7 +30526,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.665488651237353</v>
+        <v>1.698635465534035</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.705952941190379</v>
@@ -30651,7 +30615,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.661167568318577</v>
+        <v>1.694748702234398</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.7076520850625</v>
@@ -30740,7 +30704,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.654756479848112</v>
+        <v>1.687874283915651</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.62732946562889</v>
@@ -30829,7 +30793,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.648411929509147</v>
+        <v>1.681637681696914</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.587144219002737</v>
@@ -30918,7 +30882,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.607456675142171</v>
+        <v>1.639432722823001</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.34112378722067</v>
@@ -31007,7 +30971,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.600961247959838</v>
+        <v>1.636280461259368</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.357038089038675</v>
@@ -31096,7 +31060,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.639627832021146</v>
+        <v>1.670576383058535</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.138911700691665</v>
@@ -31185,7 +31149,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.66467186494261</v>
+        <v>1.6958170579087</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.258185057770327</v>
@@ -31274,7 +31238,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.681915865593313</v>
+        <v>1.713433208366203</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.286639882684987</v>
@@ -31363,7 +31327,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.703914190656441</v>
+        <v>1.734262907855532</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.322555484279246</v>
@@ -31452,7 +31416,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.68848527102785</v>
+        <v>1.720175947891615</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.274767057667721</v>
@@ -31541,7 +31505,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.648626552987795</v>
+        <v>1.678766285425132</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.368787402758385</v>
@@ -31630,7 +31594,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.627531798762165</v>
+        <v>1.659806975636734</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.343033106109182</v>
@@ -31719,7 +31683,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.616153195982819</v>
+        <v>1.643726105113239</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.31535897751473</v>
@@ -31808,7 +31772,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.626130393393437</v>
+        <v>1.653575744661537</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.215999890732674</v>
@@ -31897,7 +31861,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.651238795176604</v>
+        <v>1.678766642480181</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.339875752102788</v>
@@ -31986,7 +31950,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.63994369856573</v>
+        <v>1.667527099933355</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.391271026845295</v>
